--- a/data/GalOx/231019_Galox_Off.xlsx
+++ b/data/GalOx/231019_Galox_Off.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\FB4\BIO_VT\07_FG_Collaborations\02_FluMo\03_Exchange_CIG_FMU\Data_GalOx_HRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\.julia\dev\FLUMO-modeling-paper.jl\data\GalOx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A252CDE-7F90-4B55-9E17-CF990C9E9941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB67562-6C97-49E5-AEAF-7023A9B6BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
@@ -440,16 +440,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0F982E-B600-4721-8A33-A27CE305163C}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="F11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -496,7 +496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>75</v>
+        <v>69.45</v>
       </c>
       <c r="F2">
         <v>0.34052920788743751</v>
@@ -547,7 +547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
+        <v>27.6</v>
       </c>
       <c r="F3">
         <v>0.3224653057131564</v>
@@ -598,7 +598,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -612,7 +612,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1">
-        <v>120</v>
+        <v>114.73</v>
       </c>
       <c r="F4">
         <v>0.25538223179014807</v>
@@ -649,7 +649,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +663,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F5">
         <v>0.23867276081522518</v>
@@ -700,7 +700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>107.31699999999999</v>
       </c>
       <c r="F6">
         <v>0.23923920304921245</v>
@@ -751,7 +751,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -765,7 +765,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
+        <v>27.36</v>
       </c>
       <c r="F7">
         <v>0.23792809375883542</v>
@@ -802,7 +802,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -816,7 +816,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>75</v>
+        <v>71.16</v>
       </c>
       <c r="F8">
         <v>0.24625184416771342</v>
